--- a/Documents/Table_List/01_Devil_Table.xlsx
+++ b/Documents/Table_List/01_Devil_Table.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623F78C2-19FD-44DB-B97B-6135DA2D65E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32E07DC-CD64-4353-BA3C-06BFAF0F75DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
   </bookViews>
   <sheets>
     <sheet name="Devil_Table" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Devil_Table!$A$1:$Q$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Devil_Table!$A$1:$R$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -284,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="1" shapeId="0" xr:uid="{0005841B-6D87-42AA-BEA6-F15FBDB4FEA1}">
+    <comment ref="Q2" authorId="1" shapeId="0" xr:uid="{0005841B-6D87-42AA-BEA6-F15FBDB4FEA1}">
       <text>
         <r>
           <rPr>
@@ -475,7 +475,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>번호</t>
   </si>
@@ -624,13 +624,23 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t>애니메이션
+공격 속도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atk_Speed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -870,7 +880,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -898,18 +908,18 @@
     <xf numFmtId="176" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -918,6 +928,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1233,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}">
-  <dimension ref="B2:Q8"/>
+  <dimension ref="B2:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1245,26 +1261,26 @@
     <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.125" customWidth="1"/>
-    <col min="17" max="17" width="28.875" customWidth="1"/>
+    <col min="18" max="18" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:18">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="13" t="s">
@@ -1274,25 +1290,28 @@
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="15"/>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="11" t="s">
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:17">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+    <row r="3" spans="2:18">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1317,10 +1336,11 @@
       <c r="O3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="12"/>
+      <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
+      <c r="R3" s="12"/>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:18">
       <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1364,13 +1384,16 @@
         <v>30</v>
       </c>
       <c r="P4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:18">
       <c r="B5" s="4" t="s">
         <v>32</v>
       </c>
@@ -1414,13 +1437,16 @@
         <v>32</v>
       </c>
       <c r="P5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:18">
       <c r="B6" s="5">
         <v>1</v>
       </c>
@@ -1463,12 +1489,15 @@
       <c r="O6" s="8">
         <v>300026</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="6">
         <v>900001</v>
       </c>
-      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:18">
       <c r="B7" s="5">
         <v>2</v>
       </c>
@@ -1511,12 +1540,15 @@
       <c r="O7" s="8">
         <v>300029</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="6">
         <v>900002</v>
       </c>
-      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:18">
       <c r="B8" s="5">
         <v>3</v>
       </c>
@@ -1559,34 +1591,38 @@
       <c r="O8" s="8">
         <v>300032</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="6">
         <v>900003</v>
       </c>
-      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="G2:G3"/>
+  <mergeCells count="11">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="P2:P3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="57" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="3" max="16" man="1"/>
     <brk id="8" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="1" max="8" man="1"/>
-    <brk id="16" max="8" man="1"/>
+    <brk id="17" max="8" man="1"/>
   </colBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/Documents/Table_List/01_Devil_Table.xlsx
+++ b/Documents/Table_List/01_Devil_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32E07DC-CD64-4353-BA3C-06BFAF0F75DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E278C6E-A8AD-4C49-BDA7-BB0C175F9A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Devil_Table" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Devil_Table!$A$1:$R$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Devil_Table!$A$1:$P$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
     <author>강민수</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{62139222-8403-4BA7-83A5-E43DF63B3230}">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{8C276728-D164-4840-BB92-3481ACC75C39}">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">10 = </t>
+          <t xml:space="preserve">[SkillCondition_Table] </t>
         </r>
         <r>
           <rPr>
@@ -60,231 +60,11 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t xml:space="preserve">마왕
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">10 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이외</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> = </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>일반</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>타워</t>
+          <t>참조</t>
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{181E3D61-312C-4C76-961D-7786A455B4AA}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">10 = </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">마왕
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">10 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이외</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> = </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>일반</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">타워
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3 = </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>일반</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>타워</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>최대값</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{8C276728-D164-4840-BB92-3481ACC75C39}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">[SkillCondition_Table] </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>참조</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q2" authorId="1" shapeId="0" xr:uid="{0005841B-6D87-42AA-BEA6-F15FBDB4FEA1}">
+    <comment ref="O2" authorId="1" shapeId="0" xr:uid="{0005841B-6D87-42AA-BEA6-F15FBDB4FEA1}">
       <text>
         <r>
           <rPr>
@@ -298,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{AC91F558-E8E3-4783-AF8B-B1803CBFF2C3}">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{AC91F558-E8E3-4783-AF8B-B1803CBFF2C3}">
       <text>
         <r>
           <rPr>
@@ -444,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{848F2BBC-251C-4F9D-932A-5C659BA0661C}">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{848F2BBC-251C-4F9D-932A-5C659BA0661C}">
       <text>
         <r>
           <rPr>
@@ -457,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{B05EA72A-B70A-4B23-A051-AD4B21C4C870}">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{B05EA72A-B70A-4B23-A051-AD4B21C4C870}">
       <text>
         <r>
           <rPr>
@@ -475,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>번호</t>
   </si>
@@ -489,24 +269,6 @@
     <t>코드</t>
   </si>
   <si>
-    <t>등급</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>별</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>능력치</t>
   </si>
   <si>
@@ -552,12 +314,6 @@
     <t>Code</t>
   </si>
   <si>
-    <t>Rank</t>
-  </si>
-  <si>
-    <t>Star</t>
-  </si>
-  <si>
     <t>Atk</t>
   </si>
   <si>
@@ -583,7 +339,7 @@
   </si>
   <si>
     <t>Prefab</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
@@ -599,21 +355,21 @@
   </si>
   <si>
     <t>HateQueen</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>지옥의 군주</t>
   </si>
   <si>
     <t>HellLord</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>프로스트 리치</t>
   </si>
   <si>
     <t>FrostSkeleton</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>비고</t>
@@ -640,9 +396,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -672,21 +428,6 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="8"/>
@@ -890,50 +631,50 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1249,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}">
-  <dimension ref="B2:R8"/>
+  <dimension ref="B2:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1261,357 +1002,317 @@
     <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.125" customWidth="1"/>
-    <col min="18" max="18" width="28.875" customWidth="1"/>
+    <col min="16" max="16" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:16">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="9" t="s">
+      <c r="P2" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" s="9" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
       <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11"/>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="12"/>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4" spans="2:18">
-      <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="3" t="s">
+    <row r="5" spans="2:16">
+      <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>42</v>
+      <c r="G5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:18">
-      <c r="B5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:16">
       <c r="B6" s="5">
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E6" s="6">
         <v>110001</v>
       </c>
       <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>500</v>
+      </c>
+      <c r="H6" s="6">
         <v>10</v>
       </c>
-      <c r="G6" s="6">
-        <v>10</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="I6" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="K6" s="8">
+        <v>300001</v>
+      </c>
+      <c r="L6" s="8">
+        <v>300025</v>
+      </c>
+      <c r="M6" s="8">
+        <v>300026</v>
+      </c>
+      <c r="N6" s="9">
         <v>1</v>
       </c>
-      <c r="I6" s="6">
-        <v>500</v>
-      </c>
-      <c r="J6" s="6">
-        <v>10</v>
-      </c>
-      <c r="K6" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="L6" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="M6" s="8">
-        <v>300001</v>
-      </c>
-      <c r="N6" s="8">
-        <v>300025</v>
-      </c>
-      <c r="O6" s="8">
-        <v>300026</v>
-      </c>
-      <c r="P6" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="6">
+      <c r="O6" s="6">
         <v>900001</v>
       </c>
-      <c r="R6" s="6"/>
+      <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:16">
       <c r="B7" s="5">
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E7" s="6">
         <v>110002</v>
       </c>
       <c r="F7" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="6">
+        <v>500</v>
+      </c>
+      <c r="H7" s="6">
         <v>10</v>
       </c>
-      <c r="G7" s="6">
-        <v>10</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1000</v>
-      </c>
-      <c r="I7" s="6">
-        <v>500</v>
-      </c>
-      <c r="J7" s="6">
-        <v>10</v>
-      </c>
-      <c r="K7" s="7">
+      <c r="I7" s="7">
         <v>0.2</v>
       </c>
-      <c r="L7" s="7">
+      <c r="J7" s="7">
         <v>1.5</v>
       </c>
+      <c r="K7" s="8">
+        <v>300002</v>
+      </c>
+      <c r="L7" s="8">
+        <v>300027</v>
+      </c>
       <c r="M7" s="8">
-        <v>300002</v>
-      </c>
-      <c r="N7" s="8">
-        <v>300027</v>
-      </c>
-      <c r="O7" s="8">
         <v>300029</v>
       </c>
-      <c r="P7" s="17">
+      <c r="N7" s="9">
         <v>1</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="O7" s="6">
         <v>900002</v>
       </c>
-      <c r="R7" s="6"/>
+      <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:16">
       <c r="B8" s="5">
         <v>3</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E8" s="6">
         <v>110003</v>
       </c>
       <c r="F8" s="6">
+        <v>500</v>
+      </c>
+      <c r="G8" s="6">
+        <v>500</v>
+      </c>
+      <c r="H8" s="6">
         <v>10</v>
       </c>
-      <c r="G8" s="6">
-        <v>10</v>
-      </c>
-      <c r="H8" s="6">
-        <v>500</v>
-      </c>
-      <c r="I8" s="6">
-        <v>500</v>
-      </c>
-      <c r="J8" s="6">
-        <v>10</v>
-      </c>
-      <c r="K8" s="7">
+      <c r="I8" s="7">
         <v>0.2</v>
       </c>
-      <c r="L8" s="7">
+      <c r="J8" s="7">
         <v>1.5</v>
       </c>
+      <c r="K8" s="8">
+        <v>300003</v>
+      </c>
+      <c r="L8" s="8">
+        <v>300030</v>
+      </c>
       <c r="M8" s="8">
-        <v>300003</v>
-      </c>
-      <c r="N8" s="8">
-        <v>300030</v>
-      </c>
-      <c r="O8" s="8">
         <v>300032</v>
       </c>
-      <c r="P8" s="17">
+      <c r="N8" s="9">
         <v>1</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="O8" s="6">
         <v>900003</v>
       </c>
-      <c r="R8" s="6"/>
+      <c r="P8" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="9">
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:N3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="P2:P3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1622,7 +1323,7 @@
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="1" max="8" man="1"/>
-    <brk id="17" max="8" man="1"/>
+    <brk id="15" max="8" man="1"/>
   </colBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/Documents/Table_List/01_Devil_Table.xlsx
+++ b/Documents/Table_List/01_Devil_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E278C6E-A8AD-4C49-BDA7-BB0C175F9A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3416B7E0-146A-4193-9B6B-C3E201C99B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Devil_Table" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Devil_Table!$B$5:$P$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Devil_Table!$A$1:$P$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -652,17 +653,17 @@
     <xf numFmtId="177" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -992,8 +993,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}">
   <dimension ref="B2:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1006,16 +1010,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="14" t="s">
@@ -1025,26 +1029,26 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="16"/>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
       <c r="N2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:16">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1069,9 +1073,9 @@
       <c r="M3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="13"/>
     </row>
     <row r="4" spans="2:16">
       <c r="B4" s="3" t="s">
@@ -1303,16 +1307,17 @@
       <c r="P8" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="B5:P5" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}"/>
   <mergeCells count="9">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/01_Devil_Table.xlsx
+++ b/Documents/Table_List/01_Devil_Table.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\Def\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3416B7E0-146A-4193-9B6B-C3E201C99B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9233173D-49F4-407E-82CC-DC2B3846374C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
+    <workbookView xWindow="4650" yWindow="5250" windowWidth="21600" windowHeight="11385" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
   </bookViews>
   <sheets>
     <sheet name="Devil_Table" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Devil_Table!$B$5:$P$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Devil_Table!$A$1:$P$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Devil_Table!$B$5:$R$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Devil_Table!$A$1:$R$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -256,7 +256,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>번호</t>
   </si>
@@ -388,6 +388,26 @@
   </si>
   <si>
     <t>Atk_Speed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 소리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망 소리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATKsound</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deathsound</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +520,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -616,13 +636,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -653,18 +713,18 @@
     <xf numFmtId="177" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -676,6 +736,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -991,13 +1063,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}">
-  <dimension ref="B2:P8"/>
+  <dimension ref="B2:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="N6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1006,20 +1078,20 @@
     <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.125" customWidth="1"/>
-    <col min="16" max="16" width="28.875" customWidth="1"/>
+    <col min="18" max="18" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="2:18">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="14" t="s">
@@ -1029,26 +1101,32 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="16"/>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
       <c r="N2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="2:16">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+    <row r="3" spans="2:18">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,11 +1151,13 @@
       <c r="M3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="11"/>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:18">
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1121,10 +1201,16 @@
         <v>27</v>
       </c>
       <c r="P4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:16">
+    <row r="5" spans="2:18">
       <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
@@ -1168,10 +1254,16 @@
         <v>28</v>
       </c>
       <c r="P5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:18">
       <c r="B6" s="5">
         <v>1</v>
       </c>
@@ -1214,9 +1306,15 @@
       <c r="O6" s="6">
         <v>900001</v>
       </c>
-      <c r="P6" s="6"/>
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6"/>
     </row>
-    <row r="7" spans="2:16">
+    <row r="7" spans="2:18">
       <c r="B7" s="5">
         <v>2</v>
       </c>
@@ -1259,9 +1357,15 @@
       <c r="O7" s="6">
         <v>900002</v>
       </c>
-      <c r="P7" s="6"/>
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:18">
       <c r="B8" s="5">
         <v>3</v>
       </c>
@@ -1304,31 +1408,39 @@
       <c r="O8" s="6">
         <v>900003</v>
       </c>
-      <c r="P8" s="6"/>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:P5" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}"/>
-  <mergeCells count="9">
+  <autoFilter ref="B5:R5" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}"/>
+  <mergeCells count="11">
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:N3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="3" max="16" man="1"/>
     <brk id="8" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="1" max="8" man="1"/>
-    <brk id="15" max="8" man="1"/>
+    <brk id="17" max="8" man="1"/>
   </colBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/Documents/Table_List/01_Devil_Table.xlsx
+++ b/Documents/Table_List/01_Devil_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\Def\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9233173D-49F4-407E-82CC-DC2B3846374C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09352EB-0567-41A8-8FA0-694E2F3B8ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="5250" windowWidth="21600" windowHeight="11385" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
   </bookViews>
   <sheets>
     <sheet name="Devil_Table" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Devil_Table!$B$5:$R$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Devil_Table!$A$1:$R$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -399,15 +399,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ATKsound</t>
+    <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Deathsound</t>
+    <t>AtkSound</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
+    <t>DeathSound</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -719,12 +719,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -733,6 +727,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1069,7 +1069,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="N6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
+      <selection pane="bottomRight" activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1094,22 +1094,22 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="12" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
       <c r="N2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P2" s="18" t="s">
@@ -1151,8 +1151,8 @@
       <c r="M3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
       <c r="P3" s="19"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="11"/>
@@ -1201,10 +1201,10 @@
         <v>27</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>38</v>
@@ -1254,10 +1254,10 @@
         <v>28</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R5" s="4" t="s">
         <v>39</v>
@@ -1419,17 +1419,17 @@
   </sheetData>
   <autoFilter ref="B5:R5" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}"/>
   <mergeCells count="11">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="O2:O3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/01_Devil_Table.xlsx
+++ b/Documents/Table_List/01_Devil_Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\Def\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09352EB-0567-41A8-8FA0-694E2F3B8ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7492F45B-D052-4092-A4EB-C9B46516A818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Devil_Table!$B$5:$R$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Devil_Table!$A$1:$R$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -719,6 +719,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -727,12 +733,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1066,10 +1066,10 @@
   <dimension ref="B2:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="N6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Q5" sqref="Q5"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1094,22 +1094,22 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
       <c r="N2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="P2" s="18" t="s">
@@ -1151,8 +1151,8 @@
       <c r="M3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
       <c r="P3" s="19"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="11"/>
@@ -1277,7 +1277,7 @@
         <v>110001</v>
       </c>
       <c r="F6" s="6">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G6" s="6">
         <v>500</v>
@@ -1328,7 +1328,7 @@
         <v>110002</v>
       </c>
       <c r="F7" s="6">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="G7" s="6">
         <v>500</v>
@@ -1379,7 +1379,7 @@
         <v>110003</v>
       </c>
       <c r="F8" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G8" s="6">
         <v>500</v>
@@ -1419,17 +1419,17 @@
   </sheetData>
   <autoFilter ref="B5:R5" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}"/>
   <mergeCells count="11">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="O2:O3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/01_Devil_Table.xlsx
+++ b/Documents/Table_List/01_Devil_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7492F45B-D052-4092-A4EB-C9B46516A818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BD2455-6DF5-4C78-8B66-33E1B4867FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
   </bookViews>
@@ -719,12 +719,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -733,6 +727,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1069,7 +1069,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1094,22 +1094,22 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="12" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
       <c r="N2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P2" s="18" t="s">
@@ -1151,8 +1151,8 @@
       <c r="M3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
       <c r="P3" s="19"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="11"/>
@@ -1419,17 +1419,17 @@
   </sheetData>
   <autoFilter ref="B5:R5" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}"/>
   <mergeCells count="11">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="O2:O3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/01_Devil_Table.xlsx
+++ b/Documents/Table_List/01_Devil_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\Def\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BD2455-6DF5-4C78-8B66-33E1B4867FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F5BC28-216A-418F-B41D-BC46C0AA29E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
+    <workbookView xWindow="435" yWindow="225" windowWidth="14400" windowHeight="12210" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
   </bookViews>
   <sheets>
     <sheet name="Devil_Table" sheetId="1" r:id="rId1"/>
@@ -719,6 +719,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -727,12 +733,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1066,10 +1066,10 @@
   <dimension ref="B2:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="Q6" sqref="Q6:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1094,22 +1094,22 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
       <c r="N2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="P2" s="18" t="s">
@@ -1151,8 +1151,8 @@
       <c r="M3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
       <c r="P3" s="19"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="11"/>
@@ -1307,10 +1307,10 @@
         <v>900001</v>
       </c>
       <c r="P6" s="6">
-        <v>0</v>
+        <v>920052</v>
       </c>
       <c r="Q6" s="6">
-        <v>0</v>
+        <v>920058</v>
       </c>
       <c r="R6" s="6"/>
     </row>
@@ -1358,10 +1358,10 @@
         <v>900002</v>
       </c>
       <c r="P7" s="6">
-        <v>0</v>
+        <v>920053</v>
       </c>
       <c r="Q7" s="6">
-        <v>0</v>
+        <v>920059</v>
       </c>
       <c r="R7" s="6"/>
     </row>
@@ -1409,27 +1409,27 @@
         <v>900003</v>
       </c>
       <c r="P8" s="6">
-        <v>0</v>
+        <v>920054</v>
       </c>
       <c r="Q8" s="6">
-        <v>0</v>
+        <v>920060</v>
       </c>
       <c r="R8" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="B5:R5" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}"/>
   <mergeCells count="11">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="O2:O3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/01_Devil_Table.xlsx
+++ b/Documents/Table_List/01_Devil_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\Def\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F5BC28-216A-418F-B41D-BC46C0AA29E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280D0341-913B-4E83-88FB-95FA12A0E3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="225" windowWidth="14400" windowHeight="12210" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
   </bookViews>
   <sheets>
     <sheet name="Devil_Table" sheetId="1" r:id="rId1"/>
@@ -719,12 +719,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -733,6 +727,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1065,11 +1065,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}">
   <dimension ref="B2:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Q6" sqref="Q6:Q8"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1094,22 +1094,22 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="12" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
       <c r="N2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P2" s="18" t="s">
@@ -1151,8 +1151,8 @@
       <c r="M3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
       <c r="P3" s="19"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="11"/>
@@ -1283,7 +1283,7 @@
         <v>500</v>
       </c>
       <c r="H6" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
         <v>0.2</v>
@@ -1331,10 +1331,10 @@
         <v>120</v>
       </c>
       <c r="G7" s="6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H7" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
         <v>0.2</v>
@@ -1419,17 +1419,17 @@
   </sheetData>
   <autoFilter ref="B5:R5" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}"/>
   <mergeCells count="11">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="O2:O3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/01_Devil_Table.xlsx
+++ b/Documents/Table_List/01_Devil_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280D0341-913B-4E83-88FB-95FA12A0E3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55466EA4-F593-4E15-AF4F-EAE998F335FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
+    <workbookView xWindow="6105" yWindow="2250" windowWidth="22695" windowHeight="13470" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
   </bookViews>
   <sheets>
     <sheet name="Devil_Table" sheetId="1" r:id="rId1"/>
@@ -251,6 +251,48 @@
         </r>
       </text>
     </comment>
+    <comment ref="P6" authorId="1" shapeId="0" xr:uid="{CE860466-9D05-4044-B210-6924FB4E0398}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>920052</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P7" authorId="1" shapeId="0" xr:uid="{6ECBCF5A-830B-4901-9E48-500C5D4248D5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>920053</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P8" authorId="1" shapeId="0" xr:uid="{238AB19B-E2F0-4AF2-B1E1-0382305D362F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>920054</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -419,7 +461,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,6 +535,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -719,6 +768,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -727,12 +782,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1069,7 +1118,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1094,22 +1143,22 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
       <c r="N2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="P2" s="18" t="s">
@@ -1151,8 +1200,8 @@
       <c r="M3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
       <c r="P3" s="19"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="11"/>
@@ -1307,7 +1356,7 @@
         <v>900001</v>
       </c>
       <c r="P6" s="6">
-        <v>920052</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="6">
         <v>920058</v>
@@ -1358,7 +1407,7 @@
         <v>900002</v>
       </c>
       <c r="P7" s="6">
-        <v>920053</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="6">
         <v>920059</v>
@@ -1409,7 +1458,7 @@
         <v>900003</v>
       </c>
       <c r="P8" s="6">
-        <v>920054</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="6">
         <v>920060</v>
@@ -1419,17 +1468,17 @@
   </sheetData>
   <autoFilter ref="B5:R5" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}"/>
   <mergeCells count="11">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="O2:O3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
